--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\AngVel\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB25D80-809B-4C06-995F-AB52307648C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F238C915-1108-4DDA-A23D-C3D6C95B216D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{692E6684-2A0F-4F3B-ACD6-60468737D7D9}"/>
+    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{232DBFEE-BC19-4BE4-9B59-04CDC8B9285E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A647F8-1861-4526-9CDE-DB83DA6486C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B500E2-BF1B-4074-A592-940256A7942D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\AngVel\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F238C915-1108-4DDA-A23D-C3D6C95B216D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323E6D74-143D-4903-B1E1-3CB3BC7636E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1092" windowWidth="15120" windowHeight="10788" xr2:uid="{232DBFEE-BC19-4BE4-9B59-04CDC8B9285E}"/>
+    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{D966CBD8-4664-4B4B-9FDC-AD9511AFBC71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,14 +401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2B500E2-BF1B-4074-A592-940256A7942D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E9FB2F-28FD-4421-8C73-230726623C10}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1.046826108304711</v>
       </c>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\AngVel\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323E6D74-143D-4903-B1E1-3CB3BC7636E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4443BF1-9839-4CB2-B9E9-45BE6177D9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5148" yWindow="696" windowWidth="15012" windowHeight="10776" xr2:uid="{D966CBD8-4664-4B4B-9FDC-AD9511AFBC71}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{2BEAD9E0-1C04-4D29-BD40-192616465739}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,14 +401,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E9FB2F-28FD-4421-8C73-230726623C10}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEF9F63-5A5B-40D8-AE52-CAE8BDAE26DA}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1.046826108304711</v>
       </c>

--- a/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f20_2RPM/RMSE.xlsx
+++ b/Mechanisms/Four_Bar_Mechanism/TeachingLab_Four_Bar/RMSE_Results/H/AngVel/f20_2RPM/RMSE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adg66\Downloads\PMKS_Verification\Mechanisms\Four_Bar_Mechanism\TeachingLab_Four_Bar\RMSE_Results\H\AngVel\f20_2RPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4443BF1-9839-4CB2-B9E9-45BE6177D9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F8EA72-4FF6-4336-8E7B-92AC823D8062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{2BEAD9E0-1C04-4D29-BD40-192616465739}"/>
+    <workbookView xWindow="5256" yWindow="0" windowWidth="14904" windowHeight="10068" xr2:uid="{E032B9C3-CE30-42B7-B90F-2F4C6FEB5A38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,7 +401,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AEF9F63-5A5B-40D8-AE52-CAE8BDAE26DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2209282-1864-40B3-A6FA-FB1FEE9C9FC1}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
